--- a/data/trans_orig/P55S4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S4-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57985D93-5E76-4F96-8510-832673B2802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AEFD74-89EF-4E59-8B1F-324C48FB8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F37D45B-27DD-4484-8ED4-B61CE51DE8A1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B837CD8-66BB-4AA3-8DAC-32784E30F189}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DEBE33-FD4E-48E4-B98F-74699B038831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10B765E-A3B6-481F-B08B-10FAD566F115}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2378,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3839479D-49B4-4187-B237-555F3F1AF66E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FDC29A-223E-4BA4-865E-C6869001F46E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P55S4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S4-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AEFD74-89EF-4E59-8B1F-324C48FB8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87C02599-4304-486D-8B7E-996A2A4A7214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B837CD8-66BB-4AA3-8DAC-32784E30F189}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43717429-8F8F-4F16-82BB-2E1AED05404A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ayuda pública: Otro</t>
@@ -87,13 +87,13 @@
     <t>Un amigo o alguien que no cobra por eso</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10B765E-A3B6-481F-B08B-10FAD566F115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1727FCC-1380-493F-BD60-E02256785B41}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2378,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FDC29A-223E-4BA4-865E-C6869001F46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B2DC8-21CF-475F-8887-001FCF77770A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
